--- a/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/MAIN/LABOUR_COMMISSION_09_06_2025.xlsx
+++ b/data/OUTPUT/INPUT_DATA_FORMAT_XLSX/MAIN/LABOUR_COMMISSION_09_06_2025.xlsx
@@ -346,10 +346,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -358,7 +358,7 @@
     <col width="33.5703125" customWidth="1" style="1" min="2" max="2"/>
     <col width="22.140625" customWidth="1" style="1" min="3" max="3"/>
     <col width="20.5703125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="27.5703125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="43.140625" customWidth="1" style="1" min="5" max="5"/>
     <col width="29.140625" customWidth="1" style="1" min="6" max="6"/>
     <col width="9.28515625" customWidth="1" style="1" min="7" max="7"/>
     <col width="32.140625" customWidth="1" style="1" min="8" max="8"/>
@@ -5012,10 +5012,1492 @@
         </is>
       </c>
     </row>
-    <row r="120" ht="15.75" customHeight="1" s="3"/>
-    <row r="121" ht="15.75" customHeight="1" s="3"/>
-    <row r="123" ht="15.75" customHeight="1" s="3"/>
-    <row r="125" ht="15.75" customHeight="1" s="3"/>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E97" s="1" t="inlineStr">
+        <is>
+          <t>claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="F97" s="1" t="inlineStr">
+        <is>
+          <t>03. Наименование на 5 стр</t>
+        </is>
+      </c>
+      <c r="G97" s="1" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="H97" s="1" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="I97" s="1" t="inlineStr">
+        <is>
+          <t>ООЗПИ "АМПАРО", адрес</t>
+        </is>
+      </c>
+      <c r="J97" s="1" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B98" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C98" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D98" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E98" s="1" t="inlineStr">
+        <is>
+          <t>claimer_entity_type</t>
+        </is>
+      </c>
+      <c r="F98" s="1" t="inlineStr">
+        <is>
+          <t>01. Тип взыскателя</t>
+        </is>
+      </c>
+      <c r="G98" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H98" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I98" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J98" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D99" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E99" s="1" t="inlineStr">
+        <is>
+          <t>debtor_entity_inn</t>
+        </is>
+      </c>
+      <c r="F99" s="1" t="inlineStr">
+        <is>
+          <t>05. ИНН/КИО</t>
+        </is>
+      </c>
+      <c r="G99" s="1" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="H99" s="1" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="I99" s="1" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+      <c r="J99" s="1" t="inlineStr">
+        <is>
+          <t>7743578549</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D100" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E100" s="1" t="inlineStr">
+        <is>
+          <t>debtor_entity_kpp</t>
+        </is>
+      </c>
+      <c r="F100" s="1" t="inlineStr">
+        <is>
+          <t>06. КПП</t>
+        </is>
+      </c>
+      <c r="J100" s="1" t="inlineStr">
+        <is>
+          <t>774301001</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C101" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E101" s="1" t="inlineStr">
+        <is>
+          <t>debtor_entity_name</t>
+        </is>
+      </c>
+      <c r="F101" s="1" t="inlineStr">
+        <is>
+          <t>03. Наименование на 5 стр</t>
+        </is>
+      </c>
+      <c r="G101" s="1" t="inlineStr">
+        <is>
+          <t>95.7</t>
+        </is>
+      </c>
+      <c r="H101" s="1" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="I101" s="1" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ Автомобили РУС"</t>
+        </is>
+      </c>
+      <c r="J101" s="1" t="inlineStr">
+        <is>
+          <t>АО "ЧЕРИ АВТОМОБИЛИ РУС"</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E102" s="1" t="inlineStr">
+        <is>
+          <t>debtor_entity_type</t>
+        </is>
+      </c>
+      <c r="F102" s="1" t="inlineStr">
+        <is>
+          <t>01. Тип должника</t>
+        </is>
+      </c>
+      <c r="G102" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H102" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I102" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J102" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C103" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D103" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E103" s="1" t="inlineStr">
+        <is>
+          <t>document_authority</t>
+        </is>
+      </c>
+      <c r="F103" s="1" t="inlineStr">
+        <is>
+          <t>07. Орган, выдавший документ</t>
+        </is>
+      </c>
+      <c r="G103" s="1" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="H103" s="1" t="inlineStr">
+        <is>
+          <t>Центральный районный суд г. Тольятти</t>
+        </is>
+      </c>
+      <c r="I103" s="1" t="inlineStr">
+        <is>
+          <t>Центральный РС г. Тольятти</t>
+        </is>
+      </c>
+      <c r="J103" s="1" t="inlineStr">
+        <is>
+          <t>Центральный РС г. Тольятти</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B104" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C104" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D104" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E104" s="1" t="inlineStr">
+        <is>
+          <t>document_case_date</t>
+        </is>
+      </c>
+      <c r="F104" s="1" t="inlineStr">
+        <is>
+          <t>06. Дата дела</t>
+        </is>
+      </c>
+      <c r="G104" s="1" t="inlineStr">
+        <is>
+          <t>22.7</t>
+        </is>
+      </c>
+      <c r="H104" s="1" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="I104" s="1" t="inlineStr">
+        <is>
+          <t>февраля..</t>
+        </is>
+      </c>
+      <c r="J104" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D105" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E105" s="1" t="inlineStr">
+        <is>
+          <t>document_case_number</t>
+        </is>
+      </c>
+      <c r="F105" s="1" t="inlineStr">
+        <is>
+          <t>05. Номер дела</t>
+        </is>
+      </c>
+      <c r="G105" s="1" t="inlineStr">
+        <is>
+          <t>76.7</t>
+        </is>
+      </c>
+      <c r="H105" s="1" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="I105" s="1" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+      <c r="J105" s="1" t="inlineStr">
+        <is>
+          <t>2-785/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E106" s="1" t="inlineStr">
+        <is>
+          <t>document_court_stamp_</t>
+        </is>
+      </c>
+      <c r="F106" s="1" t="inlineStr">
+        <is>
+          <t>14. Наличие печати суда</t>
+        </is>
+      </c>
+      <c r="I106" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J106" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C107" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D107" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E107" s="1" t="inlineStr">
+        <is>
+          <t>document_court_stamp_</t>
+        </is>
+      </c>
+      <c r="F107" s="1" t="inlineStr">
+        <is>
+          <t>14. Наличие печати суда</t>
+        </is>
+      </c>
+      <c r="H107" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I107" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J107" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C108" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E108" s="1" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F108" s="1" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="H108" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I108" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J108" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B109" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D109" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E109" s="1" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F109" s="1" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="H109" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I109" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J109" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C110" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E110" s="1" t="inlineStr">
+        <is>
+          <t>document_court_stamp_signature_</t>
+        </is>
+      </c>
+      <c r="F110" s="1" t="inlineStr">
+        <is>
+          <t>16. Наличие печати суда и подписи судьи на сшиве ИЛ</t>
+        </is>
+      </c>
+      <c r="G110" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H110" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I110" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J110" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B111" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C111" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D111" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E111" s="1" t="inlineStr">
+        <is>
+          <t>document_date</t>
+        </is>
+      </c>
+      <c r="F111" s="1" t="inlineStr">
+        <is>
+          <t>03. Дата документа</t>
+        </is>
+      </c>
+      <c r="G111" s="1" t="inlineStr">
+        <is>
+          <t>96.53</t>
+        </is>
+      </c>
+      <c r="H111" s="1" t="inlineStr">
+        <is>
+          <t>21 апреля 2025</t>
+        </is>
+      </c>
+      <c r="I111" s="1" t="inlineStr">
+        <is>
+          <t>21.04.2025</t>
+        </is>
+      </c>
+      <c r="J111" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B112" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C112" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D112" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E112" s="1" t="inlineStr">
+        <is>
+          <t>document_judge_signature_</t>
+        </is>
+      </c>
+      <c r="F112" s="1" t="inlineStr">
+        <is>
+          <t>15. Наличие подписи судьи</t>
+        </is>
+      </c>
+      <c r="H112" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I112" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J112" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C113" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E113" s="1" t="inlineStr">
+        <is>
+          <t>document_judge_signature_</t>
+        </is>
+      </c>
+      <c r="F113" s="1" t="inlineStr">
+        <is>
+          <t>15. Наличие подписи судьи</t>
+        </is>
+      </c>
+      <c r="I113" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J113" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B114" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C114" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D114" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E114" s="1" t="inlineStr">
+        <is>
+          <t>document_marks</t>
+        </is>
+      </c>
+      <c r="F114" s="1" t="inlineStr">
+        <is>
+          <t>10. Отметки на 7-ой стр.</t>
+        </is>
+      </c>
+      <c r="J114" s="1" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B115" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C115" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D115" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E115" s="1" t="inlineStr">
+        <is>
+          <t>document_number</t>
+        </is>
+      </c>
+      <c r="F115" s="1" t="inlineStr">
+        <is>
+          <t>02. Номер документа</t>
+        </is>
+      </c>
+      <c r="G115" s="1" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="H115" s="1" t="inlineStr">
+        <is>
+          <t>ФС № 033803038</t>
+        </is>
+      </c>
+      <c r="I115" s="1" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+      <c r="J115" s="1" t="inlineStr">
+        <is>
+          <t>ФС033803038</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B116" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C116" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D116" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E116" s="1" t="inlineStr">
+        <is>
+          <t>document_process</t>
+        </is>
+      </c>
+      <c r="F116" s="1" t="inlineStr">
+        <is>
+          <t>09. Процесс</t>
+        </is>
+      </c>
+      <c r="G116" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H116" s="1" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+      <c r="I116" s="1" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+      <c r="J116" s="1" t="inlineStr">
+        <is>
+          <t>Взыскать</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C117" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D117" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E117" s="1" t="inlineStr">
+        <is>
+          <t>document_type</t>
+        </is>
+      </c>
+      <c r="F117" s="1" t="inlineStr">
+        <is>
+          <t>01. Тип документа</t>
+        </is>
+      </c>
+      <c r="G117" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H117" s="1" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+      <c r="I117" s="1" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+      <c r="J117" s="1" t="inlineStr">
+        <is>
+          <t>Исполнительный лист</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E118" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_address</t>
+        </is>
+      </c>
+      <c r="F118" s="1" t="inlineStr">
+        <is>
+          <t>05. Адрес</t>
+        </is>
+      </c>
+      <c r="J118" s="1" t="inlineStr">
+        <is>
+          <t>445040,
+САМАРСКАЯ ОБЛАСТЬ,
+Г ТОЛЬЯТТИ,
+УЛ СВЕРДЛОВА,
+Д. 7Д,
+КВ. 66</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C119" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D119" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E119" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_bik</t>
+        </is>
+      </c>
+      <c r="F119" s="1" t="inlineStr">
+        <is>
+          <t>07. БИК</t>
+        </is>
+      </c>
+      <c r="G119" s="1" t="inlineStr">
+        <is>
+          <t>96.5</t>
+        </is>
+      </c>
+      <c r="H119" s="2" t="n"/>
+      <c r="J119" s="1" t="inlineStr">
+        <is>
+          <t>111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="120" ht="15.75" customHeight="1" s="3">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C120" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D120" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E120" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_inn</t>
+        </is>
+      </c>
+      <c r="F120" s="1" t="inlineStr">
+        <is>
+          <t>03. ИНН</t>
+        </is>
+      </c>
+      <c r="G120" s="1" t="inlineStr">
+        <is>
+          <t>90.2</t>
+        </is>
+      </c>
+      <c r="H120" s="2" t="n"/>
+      <c r="J120" s="1" t="inlineStr">
+        <is>
+          <t>1111111111</t>
+        </is>
+      </c>
+    </row>
+    <row r="121" ht="15.75" customHeight="1" s="3">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C121" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D121" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E121" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_kpp</t>
+        </is>
+      </c>
+      <c r="F121" s="1" t="inlineStr">
+        <is>
+          <t>04. КПП</t>
+        </is>
+      </c>
+      <c r="J121" s="1" t="inlineStr">
+        <is>
+          <t>632101001</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B122" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C122" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E122" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_name</t>
+        </is>
+      </c>
+      <c r="F122" s="1" t="inlineStr">
+        <is>
+          <t>02. Наименование получателя</t>
+        </is>
+      </c>
+      <c r="G122" s="1" t="inlineStr">
+        <is>
+          <t>94.6</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="n"/>
+      <c r="I122" s="2" t="n"/>
+      <c r="J122" s="1" t="inlineStr">
+        <is>
+          <t>СООО ПО ЗПП "АМПАРО" (ЗАЩИТА)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123" ht="15.75" customHeight="1" s="3">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C123" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D123" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E123" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_phone</t>
+        </is>
+      </c>
+      <c r="F123" s="1" t="inlineStr">
+        <is>
+          <t>06. Телефон</t>
+        </is>
+      </c>
+      <c r="G123" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H123" s="1" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+      <c r="I123" s="1" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+      <c r="J123" s="1" t="inlineStr">
+        <is>
+          <t>70000000000</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B124" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C124" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D124" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E124" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_transfer_account</t>
+        </is>
+      </c>
+      <c r="F124" s="1" t="inlineStr">
+        <is>
+          <t>08. Расчетный счет</t>
+        </is>
+      </c>
+      <c r="G124" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H124" s="2" t="n"/>
+      <c r="J124" s="1" t="inlineStr">
+        <is>
+          <t>4011111111111111111114</t>
+        </is>
+      </c>
+    </row>
+    <row r="125" ht="15.75" customHeight="1" s="3">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B125" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C125" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D125" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E125" s="1" t="inlineStr">
+        <is>
+          <t>recovery_claimer_entity_type</t>
+        </is>
+      </c>
+      <c r="F125" s="1" t="inlineStr">
+        <is>
+          <t>01. Тип взыскателя</t>
+        </is>
+      </c>
+      <c r="G125" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H125" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="I125" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+      <c r="J125" s="1" t="inlineStr">
+        <is>
+          <t>Юридическое лицо</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B126" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D126" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E126" s="1" t="inlineStr">
+        <is>
+          <t>recovery_document_power_of_attorney</t>
+        </is>
+      </c>
+      <c r="F126" s="1" t="inlineStr">
+        <is>
+          <t>02. Наличие доверенности</t>
+        </is>
+      </c>
+      <c r="G126" s="1" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="H126" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I126" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J126" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>711111/11111</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="inlineStr">
+        <is>
+          <t>LABOUR_COMMISSION</t>
+        </is>
+      </c>
+      <c r="C127" s="1" t="inlineStr">
+        <is>
+          <t>ИЛ Сотникова В.Н. ФС № 033803038.pdf</t>
+        </is>
+      </c>
+      <c r="D127" s="1" t="inlineStr">
+        <is>
+          <t>01975232-5529-4aca-591e-d7f6ad9b7ea0</t>
+        </is>
+      </c>
+      <c r="E127" s="1" t="inlineStr">
+        <is>
+          <t>recovery_document_signature_of_the_applicant</t>
+        </is>
+      </c>
+      <c r="F127" s="1" t="inlineStr">
+        <is>
+          <t>03. Подпись заявителя</t>
+        </is>
+      </c>
+      <c r="G127" s="1" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="H127" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="I127" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+      <c r="J127" s="1" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" s="3"/>
+    <row r="152" ht="15.75" customHeight="1" s="3"/>
+    <row r="154" ht="15.75" customHeight="1" s="3"/>
+    <row r="156" ht="15.75" customHeight="1" s="3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
